--- a/packages/app/public/techradar/data.xlsx
+++ b/packages/app/public/techradar/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinnapat.c/github/tinnapat/devx-backstage/packages/app/public/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{83ECDAAB-619C-FE45-B1E0-9DCF3D65E261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{82491651-4B7A-E942-84C9-034239E1AEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30520" yWindow="2000" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="-43440" yWindow="2000" windowWidth="40960" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="KBTG" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>techniques</t>
   </si>
   <si>
-    <t>DevSecOps ‡πÄ‡∏õ‡πá‡∏ô‡πÄ‡∏ó‡∏Ñ‡∏ô‡∏¥‡∏Ñ‡πÉ‡∏ô‡∏Å‡∏≤‡∏£‡∏ô‡∏≥ Security ‡πÅ‡∏•‡∏∞ Operation ‡∏ó‡∏µ‡πà‡πÄ‡∏Å‡∏µ‡πà‡∏¢‡∏ß‡∏Ç‡πâ‡∏≠‡∏á‡∏°‡∏≤‡∏£‡πà‡∏ß‡∏°‡πÉ‡∏ô‡∏Å‡∏≤‡∏£‡∏û‡∏±‡∏í‡∏ô‡∏≤‡∏ï‡∏±‡πâ‡∏á‡πÅ‡∏ï‡πà‡∏ï‡πâ‡∏ô Process ‡πÄ‡∏´‡∏°‡∏≤‡∏∞‡∏Å‡∏±‡∏ö‡∏Å‡∏≤‡∏£‡∏û‡∏±‡∏í‡∏ô‡∏≤‡∏£‡∏∞‡∏ö‡∏ö‡πÇ‡∏î‡∏¢‡∏ó‡∏±‡πà‡∏ß‡πÑ‡∏õ‡∏ó‡∏µ‡πà‡∏ï‡πâ‡∏≠‡∏á‡∏Å‡∏≤‡∏£‡∏Ñ‡∏ß‡∏≤‡∏°‡∏õ‡∏•‡∏≠‡∏î‡∏†‡∏±‡∏¢‡πÅ‡∏•‡∏∞‡∏°‡∏µ‡∏õ‡∏£‡∏∞‡∏™‡∏¥‡∏ó‡∏ò‡∏¥‡∏†‡∏≤‡∏û ‡∏Å‡∏≤‡∏£‡∏à‡∏∞‡∏ô‡∏≥ DevSecOps ‡∏°‡∏≤‡πÉ‡∏ä‡πâ‡πÑ‡∏î‡πâ ‡∏Ñ‡∏ß‡∏≤‡∏°‡∏ï‡πâ‡∏≠‡∏á‡∏°‡∏µ‡∏Å‡∏£‡∏∞‡∏ö‡∏ß‡∏ô‡∏Å‡∏≤‡∏£ Automation ‡πÄ‡∏û‡∏∑‡πà‡∏≠‡∏ó‡∏î‡∏™‡∏≠‡∏ö‡∏Ñ‡∏ß‡∏≤‡∏°‡∏õ‡∏•‡∏≠‡∏î‡∏†‡∏±‡∏¢‡∏Ç‡∏≠‡∏á‡∏£‡∏∞‡∏ö‡∏ö‡∏£‡πà‡∏ß‡∏°‡∏î‡πâ‡∏ß‡∏¢ DevSecOps ‡πÑ‡∏°‡πà‡πÄ‡∏´‡∏°‡∏≤‡∏∞‡∏Å‡∏±‡∏ö Software ‡∏ó‡∏µ‡πà‡∏°‡∏µ‡∏ß‡∏á‡∏à‡∏£‡∏Å‡∏≤‡∏£‡∏û‡∏±‡∏í‡∏ô‡∏≤‡∏¢‡∏≤‡∏ß‡∏ô‡∏≤‡∏ô ‡πÄ‡∏ä‡πà‡∏ô Cycle ‡πÄ‡∏õ‡πá‡∏ô‡∏õ‡∏µ ‡∏õ‡∏£‡∏∞‡πÇ‡∏¢‡∏ä‡∏ô‡πå‡∏Ç‡∏≠‡∏á‡∏Å‡∏≤‡∏£‡∏ô‡∏≥‡πÄ‡∏ó‡∏Ñ‡∏ô‡∏¥‡∏Ñ‡∏ô‡∏µ‡πâ‡∏°‡∏≤‡πÉ‡∏ä‡πâ‡∏Ñ‡∏∑‡∏≠‡∏Å‡∏≤‡∏£‡∏•‡∏î‡∏£‡∏∞‡∏¢‡∏∞‡πÄ‡∏ß‡∏•‡∏≤‡∏Ç‡∏≠‡∏á Security feedback loop ‡∏•‡∏á ‡∏ó‡∏≥‡πÉ‡∏´‡πâ‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡πÅ‡∏Å‡πâ‡∏õ‡∏±‡∏ç‡∏´‡∏≤ Security ‡πÑ‡∏î‡πâ‡∏≠‡∏¢‡πà‡∏≤‡∏á‡∏£‡∏ß‡∏î‡πÄ‡∏£‡πá‡∏ß‡πÅ‡∏•‡∏∞‡πÑ‡∏°‡πà‡πÑ‡∏õ‡πÄ‡∏à‡∏≠‡πÉ‡∏ô‡∏ä‡πà‡∏ß‡∏á‡∏ó‡πâ‡∏≤‡∏¢‡πÜ ‡∏´‡∏≤‡∏Å‡∏ó‡∏µ‡∏°‡πÉ‡∏î‡∏™‡∏ô‡πÉ‡∏à‡∏à‡∏∞‡πÉ‡∏ä‡πâ‡πÄ‡∏ó‡∏Ñ‡∏ô‡∏¥‡∏Ñ‡∏ô‡∏µ‡πâ ‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡∏™‡∏≠‡∏ö‡∏ñ‡∏≤‡∏°‡πÄ‡∏û‡∏¥‡πà‡∏°‡πÄ‡∏ï‡∏¥‡∏°‡πÑ‡∏î‡πâ‡∏ó‡∏µ‡πà‡∏ó‡∏µ‡∏° MAKE, KT, Core bank</t>
-  </si>
-  <si>
     <t>Anthos</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>tools</t>
   </si>
   <si>
-    <t>Anthos ‡πÄ‡∏õ‡πá‡∏ô‡πÄ‡∏Ñ‡∏£‡∏∑‡πà‡∏≠‡∏á‡∏°‡∏∑‡∏≠‡∏™‡∏≥‡∏´‡∏£‡∏±‡∏ö‡∏Å‡∏≤‡∏£‡πÉ‡∏ä‡πâ‡∏á‡∏≤‡∏ô Kubernetes ‡∏ö‡∏ô Private ‡πÅ‡∏•‡∏∞ Public cloud ‡πÄ‡∏´‡∏°‡∏≤‡∏∞‡∏™‡∏≥‡∏´‡∏£‡∏±‡∏ö‡∏Å‡∏≤‡∏£‡∏£‡∏±‡∏ô‡πÅ‡∏≠‡∏õ‡∏û‡∏•‡∏¥‡πÄ‡∏Ñ‡∏ä‡∏±‡πà‡∏ô‡∏ó‡∏µ‡πà‡πÄ‡∏õ‡πá‡∏ô container ‡∏ô‡∏≠‡∏Å‡∏à‡∏≤‡∏Å‡∏ô‡∏µ‡πâ‡∏¢‡∏±‡∏á‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡πÉ‡∏ä‡πâ‡∏£‡πà‡∏ß‡∏°‡∏Å‡∏±‡∏ö Apigee ‡πÑ‡∏î‡πâ‡∏™‡∏∞‡∏î‡∏ß‡∏Å ‡πÅ‡∏ï‡πà‡∏Ñ‡∏ß‡∏£‡∏£‡∏∞‡∏ß‡∏±‡∏á‡πÉ‡∏ô‡∏Å‡∏≤‡∏£‡∏ï‡∏¥‡∏î‡∏ï‡∏±‡πâ‡∏á ‡πÄ‡∏ô‡∏∑‡πà‡∏≠‡∏á‡∏à‡∏≤‡∏Å‡πÄ‡∏£‡∏≤‡∏¢‡∏±‡∏á‡∏û‡∏ö‡∏ß‡πà‡∏≤‡∏¢‡∏±‡∏á‡∏°‡∏µ‡∏õ‡∏±‡∏ç‡∏´‡∏≤‡πÄ‡∏Å‡∏µ‡πà‡∏¢‡∏ß‡∏Å‡∏±‡∏ö Stability ‡∏≠‡∏¢‡∏π‡πà</t>
-  </si>
-  <si>
     <t>Grails AIOPS</t>
   </si>
   <si>
@@ -67,50 +61,24 @@
     <t>platforms</t>
   </si>
   <si>
-    <t>‡πÄ‡∏õ‡πá‡∏ô Datalake ‡∏ó‡∏µ‡πà‡∏£‡∏ß‡∏ö‡∏£‡∏ß‡∏°‡∏Ç‡πâ‡∏≠‡∏°‡∏π‡∏•‡∏ó‡∏±‡πâ‡∏á‡∏ù‡∏±‡πà‡∏á Operation ‡πÅ‡∏•‡∏∞ Business ‡πÄ‡∏û‡∏∑‡πà‡∏≠‡∏ó‡∏≥ Analytic ‡∏°‡∏≤ Ontop ‡πÑ‡∏î‡πâ ‡∏ô‡∏≠‡∏Å‡∏à‡∏≤‡∏Å‡∏ô‡∏µ‡πâ‡∏¢‡∏±‡∏á‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡∏ó‡∏≥‡πÇ‡∏°‡πÄ‡∏î‡∏• Detect and Action ‡πÑ‡∏î‡πâ ‡πÄ‡∏õ‡πá‡∏ô‡∏Å‡∏≤‡∏£‡∏™‡πà‡∏á‡πÄ‡∏™‡∏£‡∏¥‡∏°‡πÉ‡∏´‡πâ‡πÅ‡∏≠‡∏õ‡∏û‡∏•‡∏¥‡πÄ‡∏Ñ‡∏ä‡∏±‡πà‡∏ô‡∏°‡∏µ UX ‡∏ó‡∏µ‡πà‡∏î‡∏µ ‡πÄ‡∏ô‡∏∑‡πà‡∏≠‡∏á‡∏à‡∏≤‡∏Å Operation ‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡∏ï‡∏≠‡∏ö‡∏™‡∏ô‡∏≠‡∏á‡∏ï‡πà‡∏≠ Incident ‡∏ó‡∏µ‡πà‡πÄ‡∏Å‡∏¥‡∏î‡∏Ç‡∏∂‡πâ‡∏ô‡πÑ‡∏î‡πâ‡∏≠‡∏¢‡πà‡∏≤‡∏á‡∏£‡∏ß‡∏î‡πÄ‡∏£‡πá‡∏ß ‡∏Ç‡∏ì‡∏∞‡∏ô‡∏µ‡πâ‡πÄ‡∏£‡∏≤‡∏Å‡∏≥‡∏•‡∏±‡∏á‡∏õ‡∏£‡∏∞‡πÄ‡∏°‡∏¥‡∏ô‡∏ó‡∏±‡πâ‡∏á‡∏ó‡∏≤‡∏á‡∏î‡πâ‡∏≤‡∏ô‡∏Ñ‡∏ß‡∏≤‡∏°‡∏Ñ‡∏∏‡πâ‡∏°‡∏Ñ‡πà‡∏≤ ‡πÄ‡∏ô‡∏∑‡πà‡∏≠‡∏á‡∏à‡∏≤‡∏Å‡πÄ‡∏õ‡πá‡∏ô‡∏ö‡∏£‡∏¥‡∏Å‡∏≤‡∏£‡∏ó‡∏µ‡πà‡∏°‡∏µ‡∏Ñ‡πà‡∏≤‡πÉ‡∏ä‡πâ‡∏à‡πà‡∏≤‡∏¢ ‡πÅ‡∏•‡∏∞‡πÄ‡∏£‡∏≤‡∏Å‡πá‡∏Å‡∏≥‡∏•‡∏±‡∏á‡∏õ‡∏£‡∏∞‡πÄ‡∏°‡∏¥‡∏ô‡πÄ‡∏Å‡∏µ‡πà‡∏¢‡∏ß‡∏Å‡∏±‡∏ö Security ‡∏ß‡πà‡∏≤‡∏°‡∏µ‡∏Ñ‡∏ß‡∏≤‡∏°‡∏™‡∏≠‡∏î‡∏Ñ‡∏•‡πâ‡∏≠‡∏á‡∏Å‡∏±‡∏ö‡∏ô‡πÇ‡∏¢‡∏ö‡∏≤‡∏¢‡∏Ñ‡∏ß‡∏≤‡∏°‡∏õ‡∏•‡∏≠‡∏î‡∏†‡∏±‡∏¢‡∏Ç‡∏≠‡∏á‡∏ò‡∏ô‡∏≤‡∏Ñ‡∏≤‡∏£‡∏´‡∏£‡∏∑‡∏≠‡πÑ‡∏°‡πà</t>
-  </si>
-  <si>
     <t>ITSM Remedy</t>
   </si>
   <si>
     <t>hold</t>
   </si>
   <si>
-    <t>Remedy ‡πÄ‡∏õ‡πá‡∏ô‡∏£‡∏∞‡∏ö‡∏ö‡∏ö‡∏£‡∏¥‡∏´‡∏≤‡∏£‡∏à‡∏±‡∏î‡∏Å‡∏≤‡∏£ Request ‡∏£‡∏∞‡∏´‡∏ß‡πà‡∏≤‡∏á‡∏û‡∏ô‡∏±‡∏Å‡∏á‡∏≤‡∏ô‡∏ó‡∏±‡πà‡∏ß‡πÑ‡∏õ ‡πÅ‡∏•‡∏∞ IT Support ‡πÄ‡∏£‡∏≤‡∏û‡∏ö‡∏õ‡∏±‡∏ç‡∏´‡∏≤‡∏ß‡πà‡∏≤‡∏ó‡∏±‡πâ‡∏á UX ‡πÅ‡∏•‡∏∞ Process ‡∏Ç‡∏≠‡∏á Remedy ‡∏ô‡∏±‡πâ‡∏ô‡πÑ‡∏°‡πà‡∏™‡∏≠‡∏î‡∏Ñ‡∏•‡πâ‡∏≠‡∏á‡∏Å‡∏±‡∏ö Lean Process ‡∏≠‡∏µ‡∏Å‡∏ó‡∏±‡πâ‡∏á‡∏¢‡∏±‡∏á Integrate ‡∏Å‡∏±‡∏ö‡∏£‡∏∞‡∏ö‡∏ö‡∏≠‡∏∑‡πà‡∏ô‡πÜ ‡πÑ‡∏î‡πâ‡∏¢‡∏≤‡∏Å ‡∏ó‡∏≥‡πÉ‡∏´‡πâ‡πÄ‡∏Å‡∏¥‡∏î‡∏Ç‡πâ‡∏≠‡∏à‡∏≥‡∏Å‡∏±‡∏î‡πÉ‡∏ô‡∏Å‡∏≤‡∏£‡πÉ‡∏ä‡πâ‡∏á‡∏≤‡∏ô‡πÅ‡∏•‡∏∞‡∏û‡∏±‡∏í‡∏ô‡∏≤‡πÉ‡∏´‡πâ‡∏°‡∏µ‡∏õ‡∏£‡∏∞‡∏™‡∏¥‡∏ó‡∏ò‡∏¥‡∏†‡∏≤‡∏û‡∏°‡∏≤‡∏Å‡∏Ç‡∏∂‡πâ‡∏ô ‡πÇ‡∏î‡∏¢‡∏™‡∏¥‡πà‡∏á‡∏ó‡∏µ‡πà‡∏°‡∏≤‡∏ó‡∏î‡πÅ‡∏ó‡∏ô‡∏Ñ‡∏∑‡∏≠ Service now</t>
-  </si>
-  <si>
-    <t>‡πÄ‡∏õ‡πá‡∏ô‡πÄ‡∏ó‡∏Ñ‡∏ô‡∏¥‡∏Ñ‡πÉ‡∏ô‡∏Å‡∏≤‡∏£‡∏™‡∏£‡πâ‡∏≤‡∏á API Specification ‡∏î‡πâ‡∏ß‡∏¢‡πÇ‡∏Ñ‡πâ‡∏î ‡∏à‡∏≤‡∏Å‡∏Å‡∏£‡∏∞‡∏ö‡∏ß‡∏ô‡∏Å‡∏≤‡∏£‡∏õ‡∏±‡∏à‡∏à‡∏∏‡∏ö‡∏±‡∏ô‡∏ó‡∏µ‡πà‡πÉ‡∏ä‡πâ Excel ‡πÉ‡∏ô‡∏Å‡∏≤‡∏£‡∏ó‡∏≥ API Spec ‡πÄ‡∏£‡∏≤‡∏û‡∏ö‡∏õ‡∏±‡∏ç‡∏´‡∏≤‡∏ß‡πà‡∏≤‡∏°‡∏µ‡πÇ‡∏≠‡∏Å‡∏≤‡∏™‡∏ó‡∏µ‡πà‡∏ï‡∏±‡∏ß API ‡∏à‡∏£‡∏¥‡∏á‡πÅ‡∏•‡∏∞ API Spec ‡∏ô‡∏±‡πâ‡∏ô‡πÑ‡∏°‡πà‡∏ï‡∏£‡∏á‡∏Å‡∏±‡∏ô ‡∏≠‡∏≤‡∏à‡πÄ‡∏Å‡∏¥‡∏î‡∏à‡∏≤‡∏Å‡∏Å‡∏≤‡∏£‡∏™‡∏∑‡πà‡∏≠‡∏™‡∏≤‡∏£‡∏ú‡∏¥‡∏î‡∏û‡∏•‡∏≤‡∏î ‡∏´‡∏£‡∏∑‡∏≠‡πÑ‡∏°‡πà‡πÑ‡∏î‡πâ‡∏≠‡∏±‡∏û‡πÄ‡∏î‡∏ó‡∏≠‡∏¢‡πà‡∏≤‡∏á‡∏™‡∏≠‡∏î‡∏Ñ‡∏•‡πâ‡∏≠‡∏á‡∏Å‡∏±‡∏ô ‡πÄ‡∏°‡∏∑‡πà‡∏≠‡πÄ‡∏£‡∏≤‡πÑ‡∏î‡πâ‡∏ó‡∏î‡∏•‡∏≠‡∏á‡∏™‡∏£‡πâ‡∏≤‡∏á API Spec ‡∏î‡πâ‡∏ß‡∏¢‡∏Å‡∏≤‡∏£‡πÄ‡∏Ç‡∏µ‡∏¢‡∏ô‡πÇ‡∏Ñ‡πâ‡∏î‡πÅ‡∏•‡πâ‡∏ß ‡πÄ‡∏£‡∏≤‡∏û‡∏ö‡∏ß‡πà‡∏≤ Code ‡∏Å‡∏±‡∏ö API Spec ‡∏ô‡∏±‡πâ‡∏ô‡∏°‡∏µ‡∏Ñ‡∏ß‡∏≤‡∏° Consistency ‡∏Å‡∏±‡∏ô‡∏°‡∏≤‡∏Å‡∏Ç‡∏∂‡πâ‡∏ô ‡πÅ‡∏•‡∏∞‡∏¢‡∏±‡∏á‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡∏ó‡∏î‡∏™‡∏≠‡∏ö‡∏Å‡∏≤‡∏£‡πÄ‡∏£‡∏µ‡∏¢‡∏Å API ‡πÑ‡∏î‡πâ‡∏á‡πà‡∏≤‡∏¢ ‡πÄ‡∏°‡∏∑‡πà‡∏≠‡πÉ‡∏ä‡πâ‡πÄ‡∏Ñ‡∏£‡∏∑‡πà‡∏≠‡∏á‡∏°‡∏∑‡∏≠‡∏≠‡∏¢‡πà‡∏≤‡∏á Swagger ‡∏Å‡∏≤‡∏£‡∏à‡∏∞‡πÄ‡∏õ‡∏•‡∏µ‡πà‡∏¢‡∏ô‡∏°‡∏≤‡πÉ‡∏ä‡πâ‡πÄ‡∏ó‡∏Ñ‡∏ô‡∏¥‡∏Ñ‡∏ô‡∏µ‡πâ‡πÑ‡∏î‡πâ‡∏ô‡∏±‡πâ‡∏ô ‡∏à‡∏∞‡∏ï‡πâ‡∏≠‡∏á‡∏°‡∏µ‡∏Å‡∏≤‡∏£‡∏ï‡∏Å‡∏•‡∏á‡∏Å‡∏±‡∏ô‡πÉ‡∏ô‡∏ó‡∏µ‡∏°‡∏Å‡πà‡∏≠‡∏ô‡∏ß‡πà‡∏≤‡πÉ‡∏Ñ‡∏£‡∏à‡∏∞‡πÄ‡∏õ‡πá‡∏ô‡∏ú‡∏π‡πâ‡πÄ‡∏Ç‡∏µ‡∏¢‡∏ô API Spec ‡∏ô‡∏µ‡πâ ‡πÄ‡∏ô‡∏∑‡πà‡∏≠‡∏á‡∏à‡∏≤‡∏Å‡∏ï‡∏≠‡∏ô‡∏ó‡∏µ‡πà‡πÉ‡∏ä‡πâ Excel ‡∏à‡∏∞‡πÉ‡∏´‡πâ BA ‡πÄ‡∏õ‡πá‡∏ô‡∏Ñ‡∏ô‡πÄ‡∏Ç‡∏µ‡∏¢‡∏ô ‡πÅ‡∏ï‡πà‡∏û‡∏≠‡πÄ‡∏õ‡πá‡∏ô‡∏Å‡∏≤‡∏£‡∏™‡∏£‡πâ‡∏≤‡∏á‡∏î‡πâ‡∏ß‡∏¢‡πÇ‡∏Ñ‡πâ‡∏î‡πÅ‡∏•‡πâ‡∏ß ‡∏î‡∏π‡πÄ‡∏´‡∏°‡∏∑‡∏≠‡∏ô‡∏Å‡∏±‡∏ö‡∏ß‡πà‡∏≤‡∏à‡∏∞‡∏ï‡πâ‡∏≠‡∏á‡πÄ‡∏õ‡πá‡∏ô‡∏ó‡∏≤‡∏á Developer ‡πÄ‡∏õ‡πá‡∏ô‡∏ú‡∏π‡πâ‡πÄ‡∏Ç‡∏µ‡∏¢‡∏ô‡πÄ‡∏≠‡∏á ‡∏´‡∏≤‡∏Å‡∏ó‡∏µ‡∏°‡πÉ‡∏î‡∏ï‡πâ‡∏≠‡∏á‡∏Å‡∏≤‡∏£‡πÉ‡∏ä‡πâ‡πÄ‡∏ó‡∏Ñ‡∏ô‡∏¥‡∏Ñ‡∏ô‡∏µ‡πâ ‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡∏Ç‡∏≠‡∏£‡∏≤‡∏¢‡∏•‡∏∞‡πÄ‡∏≠‡∏µ‡∏¢‡∏î‡πÑ‡∏î‡πâ‡∏ó‡∏µ‡πà‡∏ó‡∏µ‡∏° SDX</t>
-  </si>
-  <si>
     <t>DORA</t>
   </si>
   <si>
-    <t>‡πÄ‡∏õ‡πá‡∏ô‡πÅ‡∏ô‡∏ß‡∏ó‡∏≤‡∏á‡∏ä‡∏µ‡πâ‡∏ß‡∏±‡∏î‡∏õ‡∏£‡∏∞‡∏™‡∏¥‡∏ó‡∏ò‡∏¥‡∏†‡∏≤‡∏û‡∏Ç‡∏≠‡∏á‡∏ó‡∏µ‡∏°‡∏û‡∏±‡∏í‡∏ô‡∏≤‡∏ã‡∏≠‡∏ü‡∏ï‡πå‡πÅ‡∏ß‡∏£‡πå‡∏ó‡∏µ‡πà‡πÉ‡∏ä‡πâ‡∏Å‡∏±‡∏ô‡πÉ‡∏ô‡∏£‡∏∞‡∏î‡∏±‡∏ö‡∏™‡∏≤‡∏Å‡∏• ‡πÇ‡∏î‡∏¢‡∏ú‡πà‡∏≤‡∏ô‡∏á‡∏≤‡∏ô‡∏ß‡∏¥‡∏à‡∏±‡∏¢ DORA (DevOps Research and Assessment) ‡∏ã‡∏∂‡πà‡∏á‡∏°‡∏µ‡πÉ‡∏à‡∏Ñ‡∏ß‡∏≤‡∏°‡∏™‡∏≥‡∏Ñ‡∏±‡∏ç ‡∏Ñ‡∏∑‡∏≠‡∏õ‡∏±‡∏à‡∏à‡∏±‡∏¢‡∏ó‡∏µ‡πà‡∏™‡πà‡∏á‡∏ú‡∏•‡∏ï‡πà‡∏≠‡∏õ‡∏£‡∏∞‡∏™‡∏¥‡∏ó‡∏ò‡∏¥‡∏†‡∏≤‡∏û‡∏Ç‡∏≠‡∏á‡∏ó‡∏µ‡∏°‡∏û‡∏±‡∏í‡∏ô‡∏≤‡∏ã‡∏≠‡∏ü‡∏ï‡πå‡πÅ‡∏ß‡∏£‡πå ‡∏°‡∏µ 4 ‡∏õ‡∏±‡∏à‡∏à‡∏±‡∏¢‡∏î‡πâ‡∏ß‡∏¢‡∏Å‡∏±‡∏ô ‡πÄ‡∏£‡∏µ‡∏¢‡∏Å‡∏ß‡πà‡∏≤ Four Key Metrics ‡πÇ‡∏î‡∏¢‡πÄ‡∏£‡∏≤‡∏°‡∏µ‡∏Ñ‡∏ß‡∏≤‡∏°‡∏Ñ‡∏¥‡∏î‡πÄ‡∏´‡πá‡∏ô‡∏ß‡πà‡∏≤ Four Key Metrics ‡∏ô‡∏µ‡πâ‡πÄ‡∏´‡∏°‡∏≤‡∏∞‡∏ó‡∏µ‡πà‡∏à‡∏∞‡∏ô‡∏≥‡∏°‡∏≤‡πÉ‡∏ä‡πâ‡πÉ‡∏ô‡∏ä‡∏≤‡∏ß KBTG ‡∏ó‡∏µ‡πà‡∏°‡∏µ‡∏™‡πà‡∏ß‡∏ô‡∏£‡πà‡∏ß‡∏°‡∏ï‡∏•‡∏≠‡∏î‡∏Å‡∏£‡∏∞‡∏ö‡∏ß‡∏ô‡∏Å‡∏≤‡∏£‡∏Å‡∏≤‡∏£‡∏û‡∏±‡∏í‡∏ô‡∏≤‡∏ã‡∏≠‡∏ü‡∏ï‡πå‡πÅ‡∏ß‡∏£‡πå‡∏ï‡∏±‡πâ‡∏á‡πÅ‡∏ï‡πà‡∏ï‡πâ‡∏ô‡∏à‡∏ô‡∏à‡∏ö ‡πÄ‡∏õ‡πá‡∏ô‡∏ï‡∏±‡∏ß‡πÄ‡∏•‡∏∑‡∏≠‡∏Å‡∏ó‡∏µ‡πà‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡∏ô‡∏≥‡∏°‡∏≤‡∏õ‡∏£‡∏∞‡∏¢‡∏∏‡∏Å‡∏ï‡πå‡πÉ‡∏ä‡πâ‡∏Å‡∏±‡∏ö OKRs ‡∏Ç‡∏≠‡∏á‡∏≠‡∏á‡∏Ñ‡πå‡∏Å‡∏£‡πÑ‡∏î‡πâ ‡∏ï‡∏±‡∏ß‡∏≠‡∏¢‡πà‡∏≤‡∏á‡πÄ‡∏ä‡πà‡∏ô‡∏Å‡∏≤‡∏£‡∏ï‡∏±‡πâ‡∏á‡πÄ‡∏õ‡πâ‡∏≤‡∏´‡∏°‡∏≤‡∏¢‡∏≠‡∏¢‡∏π‡πà‡∏ó‡∏µ‡πà‡∏ï‡∏±‡πâ‡∏á‡πÅ‡∏ï‡πà‡∏Å‡∏≤‡∏£‡∏ï‡∏±‡πâ‡∏á‡πÄ‡∏õ‡πâ‡∏≤‡∏´‡∏°‡∏≤‡∏¢‡∏£‡∏∞‡∏¢‡∏∞‡πÄ‡∏ß‡∏•‡∏≤‡∏ï‡∏±‡πâ‡∏á‡πÅ‡∏ï‡πà‡∏°‡∏µ‡∏Å‡∏≤‡∏£‡∏ó‡∏≥ code commit ‡∏à‡∏ô‡∏ñ‡∏∂‡∏á‡∏Å‡∏≤‡∏£‡∏ï‡∏¥‡∏î‡∏ï‡∏±‡πâ‡∏á‡∏Ç‡∏∂‡πâ‡∏ô production ‡πÉ‡∏´‡πâ‡πÑ‡∏°‡πà‡πÄ‡∏Å‡∏¥‡∏ô 1 ‡∏ä‡∏±‡πà‡∏ß‡πÇ‡∏°‡∏á ‡∏™‡∏≥‡∏´‡∏£‡∏±‡∏ö‡∏Ç‡πâ‡∏≠‡∏°‡∏π‡∏•‡πÄ‡∏û‡∏¥‡πà‡∏°‡πÄ‡∏ï‡∏¥‡∏°‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡∏™‡∏≠‡∏ö‡∏ñ‡∏≤‡∏°‡πÄ‡∏û‡∏¥‡πà‡∏°‡πÄ‡∏ï‡∏¥‡∏°‡πÑ‡∏î‡πâ‡∏ó‡∏µ‡πà Thoughtworks ‡∏´‡∏£‡∏∑‡∏≠‡πÑ‡∏°‡πà‡∏Å‡πá Google ‡πÄ‡∏û‡∏£‡∏≤‡∏∞‡πÄ‡∏õ‡πá‡∏ô‡∏ú‡∏π‡πâ‡∏°‡∏µ‡∏™‡πà‡∏ß‡∏ô‡∏£‡πà‡∏ß‡∏°‡πÉ‡∏ô‡∏Å‡∏≤‡∏£‡∏û‡∏±‡∏í‡∏ô‡∏≤‡∏ï‡∏±‡∏ß‡∏ä‡∏µ‡πâ‡∏ß‡∏±‡∏î Four Key Metrics ‡∏ô‡∏µ‡πâ</t>
-  </si>
-  <si>
     <t>Confluence</t>
   </si>
   <si>
-    <t>‡πÄ‡∏õ‡πá‡∏ô‡πÄ‡∏Ñ‡∏£‡∏∑‡πà‡∏≠‡∏á‡∏°‡∏∑‡∏≠‡∏ó‡∏µ‡πà‡πÉ‡∏ä‡πâ‡πÄ‡∏û‡∏∑‡πà‡∏≠‡∏Å‡∏≤‡∏£‡∏ó‡∏≥‡πÄ‡∏Ç‡∏µ‡∏¢‡∏ô‡πÅ‡∏•‡∏∞‡πÄ‡∏Å‡πá‡∏ö‡πÄ‡∏≠‡∏Å‡∏™‡∏≤‡∏£‡∏ï‡πà‡∏≤‡∏á‡πÜ ‡∏Å‡πà‡∏≠‡∏ô‡∏ó‡∏µ‡πà‡πÄ‡∏£‡∏≤‡∏à‡∏∞‡∏°‡∏≤‡πÉ‡∏ä‡πâ Confluence ‡∏ô‡∏±‡πâ‡∏ô ‡πÄ‡∏£‡∏≤‡∏û‡∏ö‡∏õ‡∏±‡∏ç‡∏´‡∏≤‡πÉ‡∏ô‡∏Å‡∏≤‡∏£‡πÄ‡∏Å‡πá‡∏ö‡πÄ‡∏≠‡∏Å‡∏™‡∏≤‡∏£ ‡πÄ‡∏ô‡∏∑‡πà‡∏≠‡∏á‡∏à‡∏≤‡∏Å‡πÄ‡∏£‡∏≤‡πÑ‡∏°‡πà‡∏°‡∏µ Single source of truth ‡∏î‡∏±‡∏á‡∏ô‡∏±‡πâ‡∏ô‡∏ß‡∏¥‡∏ò‡∏µ‡πÄ‡∏Å‡πá‡∏ö‡πÄ‡∏≠‡∏Å‡∏™‡∏≤‡∏£‡∏ñ‡∏∂‡∏á‡πÅ‡∏ï‡∏Å‡∏ï‡πà‡∏≤‡∏á‡∏Å‡∏±‡∏ô‡πÑ‡∏õ‡πÉ‡∏ô‡πÅ‡∏ï‡πà‡∏•‡∏∞‡∏ó‡∏µ‡∏° ‡∏ó‡∏≥‡πÉ‡∏´‡πâ‡πÑ‡∏°‡πà‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡∏Ñ‡πâ‡∏ô‡∏´‡∏≤‡πÄ‡∏≠‡∏Å‡∏™‡∏≤‡∏£‡πÑ‡∏î‡πâ‡∏≠‡∏¢‡πà‡∏≤‡∏á‡∏°‡∏µ‡∏õ‡∏£‡∏∞‡∏™‡∏¥‡∏ó‡∏ò‡∏¥‡∏†‡∏≤‡∏û ‡πÄ‡∏°‡∏∑‡πà‡∏≠‡πÄ‡∏£‡∏≤‡∏ô‡∏≥ Confluence ‡∏°‡∏≤‡πÉ‡∏ä‡πâ‡πÅ‡∏•‡πâ‡∏ß ‡πÄ‡∏£‡∏≤‡∏û‡∏ö‡∏ß‡πà‡∏≤‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡πÉ‡∏ä‡πâ‡πÄ‡∏Ñ‡∏£‡∏∑‡πà‡∏≠‡∏á‡∏°‡∏∑‡∏≠‡∏ô‡∏µ‡πâ‡πÄ‡∏õ‡πá‡∏ô Knowledge base ‡∏Ç‡∏≠‡∏á‡∏≠‡∏á‡∏Ñ‡πå‡∏Å‡∏£‡πÑ‡∏î‡πâ ‡πÇ‡∏î‡∏¢‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡∏à‡∏±‡∏î‡πÄ‡∏Å‡πá‡∏ö‡πÅ‡∏•‡∏∞‡∏Ñ‡πâ‡∏ô‡∏´‡∏≤‡πÄ‡∏≠‡∏Å‡∏™‡∏≤‡∏£‡πÑ‡∏î‡πâ‡∏≠‡∏¢‡πà‡∏≤‡∏á‡∏°‡∏µ‡∏õ‡∏£‡∏∞‡∏™‡∏¥‡∏ó‡∏ò‡∏¥‡∏†‡∏≤‡∏û ‡πÅ‡∏ï‡πà‡∏Ç‡πâ‡∏≠‡∏™‡∏±‡∏á‡πÄ‡∏Å‡∏ï‡∏Ñ‡∏∑‡∏≠‡πÄ‡∏°‡∏∑‡πà‡∏≠‡∏Ñ‡πâ‡∏ô‡∏´‡∏≤‡∏î‡πâ‡∏ß‡∏¢ keyword ‡∏†‡∏≤‡∏©‡∏≤‡πÑ‡∏ó‡∏¢ ‡∏ï‡πâ‡∏≠‡∏á‡πÄ‡∏õ‡πá‡∏ô‡πÅ‡∏ö‡∏ö exact match ‡πÄ‡∏ó‡πà‡∏≤‡∏ô‡∏±‡πâ‡∏ô ‡∏à‡∏∂‡∏á‡∏à‡∏∞‡πÄ‡∏à‡∏≠‡∏™‡∏¥‡πà‡∏á‡∏ó‡∏µ‡πà‡∏ï‡πâ‡∏≠‡∏á‡∏Å‡∏≤‡∏£ ‡∏ô‡∏≠‡∏Å‡∏à‡∏≤‡∏Å‡∏ô‡∏µ‡πâ ‡πÄ‡∏°‡∏∑‡πà‡∏≠ Integrate ‡∏Å‡∏±‡∏ö MSOffice ‡∏¢‡∏±‡∏á‡πÑ‡∏°‡πà‡∏™‡∏≤‡∏°‡∏≤‡∏£‡∏ñ‡∏£‡∏≠‡∏á‡∏£‡∏±‡∏ö‡∏Å‡∏≤‡∏£‡∏ó‡∏≥ Online collaboration ‡∏´‡∏≤‡∏Å‡∏ï‡πâ‡∏≠‡∏á‡∏Å‡∏≤‡∏£‡∏ü‡∏µ‡πÄ‡∏à‡∏≠‡∏£‡πå‡∏ô‡∏µ‡πâ ‡πÉ‡∏´‡πâ‡πÑ‡∏õ‡πÉ‡∏ä‡πâ Office 365 ‡πÅ‡∏ó‡∏ô ‡∏´‡∏≤‡∏Å‡∏ó‡∏µ‡∏°‡πÉ‡∏î‡∏™‡∏ô‡πÉ‡∏à‡πÉ‡∏ä‡πâ Confluence ‡∏´‡∏£‡∏∑‡∏≠‡∏ï‡∏¥‡∏î‡∏õ‡∏±‡∏ç‡∏´‡∏≤‡∏Å‡∏≤‡∏£‡πÉ‡∏ä‡πâ‡∏á‡∏≤‡∏ô ‡πÉ‡∏´‡πâ‡∏ï‡∏¥‡∏î‡∏ï‡πà‡∏≠‡∏ó‡∏µ‡πà‡∏ó‡∏µ‡∏° KBTG Academy</t>
-  </si>
-  <si>
     <t>Agile</t>
   </si>
   <si>
-    <t>Agile ‡∏ó‡∏≥‡πÉ‡∏´‡πâ‡∏™‡∏£‡πâ‡∏≤‡∏á product ‡∏ó‡∏µ‡πà‡∏ï‡∏≠‡∏ö‡πÇ‡∏à‡∏ó‡∏¢‡πå customer needs ‡∏à‡∏£‡∏¥‡∏á‡πÜ ‡πÑ‡∏î‡πâ ‡∏•‡∏π‡∏Å‡∏Ñ‡πâ‡∏≤‡πÄ‡∏´‡πá‡∏ô product ‡πÅ‡∏•‡∏∞ feedback ‡πÑ‡∏î‡πâ‡∏£‡∏ß‡∏î‡πÄ‡∏£‡πá‡∏ß Limitation ‡∏Ñ‡∏∑‡∏≠ stakeholders involvement ‡πÅ‡∏•‡∏∞ regulatory project ‡∏ó‡∏µ‡πà‡∏ï‡πâ‡∏≠‡∏á‡πÉ‡∏ä‡πâ documentation over communication ‡∏¢‡∏Å‡∏ï‡∏±‡∏ß‡∏≠‡∏¢‡πà‡∏≤‡∏á‡πÄ‡∏ä‡πà‡∏ô fixed time, cost, scope ‡∏û‡∏£‡πâ‡∏≠‡∏°‡∏Å‡∏±‡∏ô ‡∏´‡∏£‡∏∑‡∏≠ project ‡∏ó‡∏µ‡πà‡∏ï‡πâ‡∏≠‡∏á estimate ‡∏ó‡∏±‡πâ‡∏á‡∏™‡∏≤‡∏°‡∏™‡∏¥‡πà‡∏á‡∏Å‡πà‡∏≠‡∏ô‡πÄ‡∏£‡∏¥‡πà‡∏°‡∏ó‡∏≥ ‡πÄ‡∏ô‡∏∑‡πà‡∏≠‡∏á‡∏à‡∏≤‡∏Å agile ‡∏ï‡πâ‡∏≠‡∏á‡πÑ‡∏°‡πà‡πÄ‡∏õ‡πá‡∏ô contract agreement date ‡∏≠‡∏µ‡∏Å‡∏ï‡∏±‡∏ß‡∏≠‡∏¢‡πà‡∏≤‡∏á‡∏ó‡∏µ‡πà‡∏ó‡∏≥‡πÉ‡∏´‡πâ‡∏ó‡∏≥ agile ‡πÑ‡∏î‡πâ‡∏¢‡∏≤‡∏Å‡∏Ñ‡∏∑‡∏≠ automation test ‡πÑ‡∏°‡πà‡∏û‡∏≠ ‡∏´‡∏≤‡∏Å‡∏ó‡∏µ‡∏°‡πÉ‡∏î‡∏™‡∏ô‡πÉ‡∏à ‡∏ï‡∏¥‡∏î‡∏ï‡πà‡∏≠ K.Aek Wikanes ‡∏à‡∏≤‡∏Å SDX</t>
-  </si>
-  <si>
-    <t>‡πÑ‡∏î‡πâ‡∏ó‡∏≥‡∏•‡∏≠‡∏á‡πÉ‡∏ä‡πâ‡πÅ‡∏•‡πâ‡∏ß ‡∏ï‡∏£‡∏á‡∏Å‡∏±‡∏ö‡∏Ñ‡∏ß‡∏≤‡∏°‡∏ï‡πâ‡∏≠‡∏á‡∏Å‡∏≤‡∏£‡πÉ‡∏ô‡πÅ‡∏á‡πà‡∏ó‡∏µ‡πà‡∏°‡∏µ cloud sync ‡∏ó‡∏≥‡πÉ‡∏´‡πâ‡∏ó‡∏≥‡∏á‡∏≤‡∏ô‡πÑ‡∏î‡πâ‡∏£‡∏ß‡∏î‡πÄ‡∏£‡πá‡∏ß‡πÅ‡∏•‡∏∞‡∏¢‡∏∑‡∏î‡∏´‡∏¢‡∏∏‡πà‡∏ô‡∏Ç‡∏∂‡πâ‡∏ô
-‡∏™‡∏≤‡πÄ‡∏´‡∏ï‡∏∏‡∏ó‡∏µ‡πà‡∏¢‡∏±‡∏á‡πÑ‡∏°‡πà adopt ‡πÄ‡∏û‡∏£‡∏≤‡∏∞‡∏ß‡πà‡∏≤‡∏°‡∏µ‡∏Ñ‡πà‡∏≤‡πÉ‡∏ä‡πâ‡∏à‡πà‡∏≤‡∏¢ ‡πÅ‡∏•‡∏∞ concern ‡πÄ‡∏£‡∏∑‡πà‡∏≠‡∏á‡∏á‡∏Ñ‡∏ß‡∏≤‡∏°‡∏õ‡∏•‡∏≠‡∏î‡∏†‡∏±‡∏¢‡∏Ç‡∏≠‡∏á‡∏Ç‡πâ‡∏≠‡∏°‡∏π‡∏•
-‡∏´‡∏≤‡∏Å‡∏ó‡∏µ‡∏°‡πÉ‡∏î‡∏™‡∏ô‡πÉ‡∏à ‡∏ï‡∏¥‡∏î‡∏ï‡πà‡∏≠‡πÑ‡∏î‡πâ‡∏ó‡∏µ‡πà‡∏ó‡∏µ‡∏° SDX</t>
-  </si>
-  <si>
     <t>LINE for Work</t>
   </si>
   <si>
-    <t>‡∏Å‡∏≤‡∏£‡πÉ‡∏ä‡πâ LINE for Work ‡πÅ‡∏ó‡∏ô‡∏ó‡∏µ‡πà LINE ‡πÉ‡∏ô‡∏Å‡∏≤‡∏£‡∏Ñ‡∏∏‡∏¢‡∏á‡∏≤‡∏ô ‡∏à‡∏∞‡∏ó‡∏≥‡πÉ‡∏´‡πâ‡∏Ç‡πâ‡∏≠‡∏°‡∏π‡∏•‡∏ó‡∏µ‡πà‡∏Ñ‡∏∏‡∏¢‡∏Å‡∏±‡∏ô ‡∏ó‡∏±‡πâ‡∏á‡∏£‡∏π‡∏õ‡∏†‡∏≤‡∏û ‡πÅ‡∏•‡∏∞ attachments ‡πÑ‡∏°‡πà‡∏´‡∏≤‡∏¢ ‡πÅ‡∏•‡∏∞‡∏°‡∏µ‡∏Ñ‡∏ß‡∏≤‡∏° secure ‡∏Ç‡∏∂‡πâ‡∏ô ‡∏õ‡∏±‡∏à‡∏à‡∏∏‡∏ö‡∏±‡∏ô‡∏¢‡∏±‡∏á‡∏≠‡∏¢‡∏π‡πà‡πÉ‡∏ô‡∏Å‡∏≤‡∏£‡∏®‡∏∂‡∏Å‡∏©‡∏≤‡πÄ‡∏û‡∏¥‡πà‡∏°‡πÄ‡∏ï‡∏¥‡∏°‡∏≠‡∏¢‡∏π‡πà concern ‡∏ó‡∏µ‡πà‡∏°‡∏µ‡πÉ‡∏ô‡∏Ç‡∏ì‡∏∞‡∏ô‡∏µ‡πâ‡∏°‡∏µ‡πÅ‡∏Ñ‡πà‡πÄ‡∏£‡∏∑‡πà‡∏≠‡∏á‡∏Ñ‡πà‡∏≤‡πÉ‡∏ä‡πâ‡∏à‡πà‡∏≤‡∏¢‡∏ó‡∏µ‡πà‡∏à‡∏∞‡πÄ‡∏Å‡∏¥‡∏î‡∏Ç‡∏∂‡πâ‡∏ô ‡∏ó‡∏µ‡∏°‡πÉ‡∏î‡∏™‡∏ô‡πÉ‡∏à ‡∏ï‡∏¥‡∏î‡∏ï‡πà‡∏≠‡∏Ñ‡∏∏‡∏ì‡∏Å‡∏£‡∏∞‡∏ó‡∏¥‡∏á</t>
-  </si>
-  <si>
     <t>CAB</t>
   </si>
   <si>
@@ -601,6 +569,37 @@
   </si>
   <si>
     <t>BMC Control-M</t>
+  </si>
+  <si>
+    <t>DevSecOps เป็นเทคนิคในการนำ Security และ Operation ที่เกี่ยวข้องมาร่วมในการพัฒนาตั้งแต่ต้น Process เหมาะกับการพัฒนาระบบโดยทั่วไปที่ต้องการความปลอดภัยและมีประสิทธิภาพ การจะนำ DevSecOps มาใช้ได้ ความต้องมีกระบวนการ Automation เพื่อทดสอบความปลอดภัยของระบบร่วมด้วย DevSecOps ไม่เหมาะกับ Software ที่มีวงจรการพัฒนายาวนาน เช่น Cycle เป็นปี ประโยชน์ของการนำเทคนิคนี้มาใช้คือการลดระยะเวลาของ Security feedback loop ลง ทำให้สามารถแก้ปัญหา Security ได้อย่างรวดเร็วและไม่ไปเจอในช่วงท้ายๆ หากทีมใดสนใจจะใช้เทคนิคนี้ สามารถสอบถามเพิ่มเติมได้ที่ทีม MAKE, KT, Core bank</t>
+  </si>
+  <si>
+    <t>Anthos เป็นเครื่องมือสำหรับการใช้งาน Kubernetes บน Private และ Public cloud เหมาะสำหรับการรันแอปพลิเคชั่นที่เป็น container นอกจากนี้ยังสามารถใช้ร่วมกับ Apigee ได้สะดวก แต่ควรระวังในการติดตั้ง เนื่องจากเรายังพบว่ายังมีปัญหาเกี่ยวกับ Stability อยู่</t>
+  </si>
+  <si>
+    <t>เป็น Datalake ที่รวบรวมข้อมูลทั้งฝั่ง Operation และ Business เพื่อทำ Analytic มา Ontop ได้ นอกจากนี้ยังสามารถทำโมเดล Detect and Action ได้ เป็นการส่งเสริมให้แอปพลิเคชั่นมี UX ที่ดี เนื่องจาก Operation สามารถตอบสนองต่อ Incident ที่เกิดขึ้นได้อย่างรวดเร็ว ขณะนี้เรากำลังประเมินทั้งทางด้านความคุ้มค่า เนื่องจากเป็นบริการที่มีค่าใช้จ่าย และเราก็กำลังประเมินเกี่ยวกับ Security ว่ามีความสอดคล้องกับนโยบายความปลอดภัยของธนาคารหรือไม่</t>
+  </si>
+  <si>
+    <t>Remedy เป็นระบบบริหารจัดการ Request ระหว่างพนักงานทั่วไป และ IT Support เราพบปัญหาว่าทั้ง UX และ Process ของ Remedy นั้นไม่สอดคล้องกับ Lean Process อีกทั้งยัง Integrate กับระบบอื่นๆ ได้ยาก ทำให้เกิดข้อจำกัดในการใช้งานและพัฒนาให้มีประสิทธิภาพมากขึ้น โดยสิ่งที่มาทดแทนคือ Service now</t>
+  </si>
+  <si>
+    <t>เป็นเทคนิคในการสร้าง API Specification ด้วยโค้ด จากกระบวนการปัจจุบันที่ใช้ Excel ในการทำ API Spec เราพบปัญหาว่ามีโอกาสที่ตัว API จริงและ API Spec นั้นไม่ตรงกัน อาจเกิดจากการสื่อสารผิดพลาด หรือไม่ได้อัพเดทอย่างสอดคล้องกัน เมื่อเราได้ทดลองสร้าง API Spec ด้วยการเขียนโค้ดแล้ว เราพบว่า Code กับ API Spec นั้นมีความ Consistency กันมากขึ้น และยังสามารถทดสอบการเรียก API ได้ง่าย เมื่อใช้เครื่องมืออย่าง Swagger การจะเปลี่ยนมาใช้เทคนิคนี้ได้นั้น จะต้องมีการตกลงกันในทีมก่อนว่าใครจะเป็นผู้เขียน API Spec นี้ เนื่องจากตอนที่ใช้ Excel จะให้ BA เป็นคนเขียน แต่พอเป็นการสร้างด้วยโค้ดแล้ว ดูเหมือนกับว่าจะต้องเป็นทาง Developer เป็นผู้เขียนเอง หากทีมใดต้องการใช้เทคนิคนี้ สามารถขอรายละเอียดได้ที่ทีม SDX</t>
+  </si>
+  <si>
+    <t>เป็นแนวทางชี้วัดประสิทธิภาพของทีมพัฒนาซอฟต์แวร์ที่ใช้กันในระดับสากล โดยผ่านงานวิจัย DORA (DevOps Research and Assessment) ซึ่งมีใจความสำคัญ คือปัจจัยที่ส่งผลต่อประสิทธิภาพของทีมพัฒนาซอฟต์แวร์ มี 4 ปัจจัยด้วยกัน เรียกว่า Four Key Metrics โดยเรามีความคิดเห็นว่า Four Key Metrics นี้เหมาะที่จะนำมาใช้ในชาว KBTG ที่มีส่วนร่วมตลอดกระบวนการการพัฒนาซอฟต์แวร์ตั้งแต่ต้นจนจบ เป็นตัวเลือกที่สามารถนำมาประยุกต์ใช้กับ OKRs ขององค์กรได้ ตัวอย่างเช่นการตั้งเป้าหมายอยู่ที่ตั้งแต่การตั้งเป้าหมายระยะเวลาตั้งแต่มีการทำ code commit จนถึงการติดตั้งขึ้น production ให้ไม่เกิน 1 ชั่วโมง สำหรับข้อมูลเพิ่มเติมสามารถสอบถามเพิ่มเติมได้ที่ Thoughtworks หรือไม่ก็ Google เพราะเป็นผู้มีส่วนร่วมในการพัฒนาตัวชี้วัด Four Key Metrics นี้</t>
+  </si>
+  <si>
+    <t>เป็นเครื่องมือที่ใช้เพื่อการทำเขียนและเก็บเอกสารต่างๆ ก่อนที่เราจะมาใช้ Confluence นั้น เราพบปัญหาในการเก็บเอกสาร เนื่องจากเราไม่มี Single source of truth ดังนั้นวิธีเก็บเอกสารถึงแตกต่างกันไปในแต่ละทีม ทำให้ไม่สามารถค้นหาเอกสารได้อย่างมีประสิทธิภาพ เมื่อเรานำ Confluence มาใช้แล้ว เราพบว่าสามารถใช้เครื่องมือนี้เป็น Knowledge base ขององค์กรได้ โดยสามารถจัดเก็บและค้นหาเอกสารได้อย่างมีประสิทธิภาพ แต่ข้อสังเกตคือเมื่อค้นหาด้วย keyword ภาษาไทย ต้องเป็นแบบ exact match เท่านั้น จึงจะเจอสิ่งที่ต้องการ นอกจากนี้ เมื่อ Integrate กับ MSOffice ยังไม่สามารถรองรับการทำ Online collaboration หากต้องการฟีเจอร์นี้ ให้ไปใช้ Office 365 แทน หากทีมใดสนใจใช้ Confluence หรือติดปัญหาการใช้งาน ให้ติดต่อที่ทีม KBTG Academy</t>
+  </si>
+  <si>
+    <t>Agile ทำให้สร้าง product ที่ตอบโจทย์ customer needs จริงๆ ได้ ลูกค้าเห็น product และ feedback ได้รวดเร็ว Limitation คือ stakeholders involvement และ regulatory project ที่ต้องใช้ documentation over communication ยกตัวอย่างเช่น fixed time, cost, scope พร้อมกัน หรือ project ที่ต้อง estimate ทั้งสามสิ่งก่อนเริ่มทำ เนื่องจาก agile ต้องไม่เป็น contract agreement date อีกตัวอย่างที่ทำให้ทำ agile ได้ยากคือ automation test ไม่พอ หากทีมใดสนใจ ติดต่อ K.Aek Wikanes จาก SDX</t>
+  </si>
+  <si>
+    <t>ได้ทำลองใช้แล้ว ตรงกับความต้องการในแง่ที่มี cloud sync ทำให้ทำงานได้รวดเร็วและยืดหยุ่นขึ้น
+สาเหตุที่ยังไม่ adopt เพราะว่ามีค่าใช้จ่าย และ concern เรื่องงความปลอดภัยของข้อมูล</t>
+  </si>
+  <si>
+    <t>การใช้ LINE for Work แทนที่ LINE ในการคุยงาน จะทำให้ข้อมูลที่คุยกัน ทั้งรูปภาพ และ attachments ไม่หาย และมีความ secure ขึ้น ปัจจุบันยังอยู่ในการศึกษาเพิ่มเติมอยู่ concern ที่มีในขณะนี้มีแค่เรื่องค่าใช้จ่ายที่จะเกิดขึ้น ทีมใดสนใจ ติดต่อคุณกระทิง</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1105,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1122,6 +1121,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1481,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1492,11 +1494,11 @@
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.1640625" style="3" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1507,16 +1509,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1530,68 +1532,68 @@
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -1600,16 +1602,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -1617,31 +1619,31 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1652,48 +1654,48 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="F9" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
+      <c r="F11" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -1708,7 +1710,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1722,7 +1724,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -1737,7 +1739,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -1751,7 +1753,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -1766,7 +1768,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -1780,7 +1782,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1795,7 +1797,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -1809,7 +1811,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -1824,7 +1826,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -1838,7 +1840,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -1853,7 +1855,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -1867,7 +1869,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
@@ -1881,7 +1883,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
@@ -1896,7 +1898,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
@@ -1910,7 +1912,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
@@ -1925,7 +1927,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -1939,7 +1941,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
@@ -1954,10 +1956,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
@@ -1968,10 +1970,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
@@ -1983,10 +1985,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
@@ -1997,10 +1999,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
@@ -2012,13 +2014,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -2026,13 +2028,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -2041,13 +2043,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -2055,13 +2057,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -2070,13 +2072,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -2084,13 +2086,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -2099,13 +2101,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -2113,13 +2115,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
@@ -2128,13 +2130,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -2142,13 +2144,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -2156,13 +2158,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -2171,13 +2173,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -2185,13 +2187,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2">
         <v>0</v>
@@ -2200,13 +2202,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -2214,13 +2216,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2">
         <v>0</v>
@@ -2229,13 +2231,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -2243,13 +2245,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2">
         <v>0</v>
@@ -2258,13 +2260,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -2272,13 +2274,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>
@@ -2287,13 +2289,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -2301,13 +2303,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
@@ -2316,13 +2318,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -2330,13 +2332,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2">
         <v>0</v>
@@ -2345,13 +2347,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -2359,13 +2361,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -2374,13 +2376,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -2388,13 +2390,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
@@ -2403,13 +2405,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -2417,13 +2419,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
@@ -2432,13 +2434,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -2446,13 +2448,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2">
         <v>0</v>
@@ -2461,13 +2463,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -2475,13 +2477,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -2490,13 +2492,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -2504,13 +2506,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -2519,13 +2521,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -2533,13 +2535,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2">
         <v>0</v>
@@ -2548,13 +2550,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -2562,13 +2564,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2">
         <v>0</v>
@@ -2577,13 +2579,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -2591,13 +2593,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2">
         <v>0</v>
@@ -2606,13 +2608,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -2620,13 +2622,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2">
         <v>0</v>
@@ -2635,13 +2637,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -2649,13 +2651,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2">
         <v>0</v>
@@ -2664,13 +2666,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -2678,13 +2680,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2">
         <v>0</v>
@@ -2693,13 +2695,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -2707,13 +2709,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2">
         <v>0</v>
@@ -2722,13 +2724,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -2736,13 +2738,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2">
         <v>0</v>
@@ -2751,13 +2753,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -2765,13 +2767,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2">
         <v>0</v>
@@ -2780,13 +2782,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -2794,13 +2796,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
@@ -2809,13 +2811,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -2823,13 +2825,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -2838,13 +2840,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -2852,13 +2854,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
@@ -2867,13 +2869,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93" s="1">
         <v>0</v>
@@ -2881,13 +2883,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2">
         <v>0</v>
@@ -2896,13 +2898,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" s="1">
         <v>0</v>
@@ -2910,13 +2912,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2">
         <v>0</v>
@@ -2925,13 +2927,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -2939,13 +2941,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2">
         <v>0</v>
@@ -2954,13 +2956,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
@@ -2968,13 +2970,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2">
         <v>0</v>
@@ -2983,13 +2985,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
@@ -2997,13 +2999,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D102" s="2">
         <v>0</v>
@@ -3012,30 +3014,30 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D104" s="2">
         <v>0</v>
@@ -3044,13 +3046,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -3058,13 +3060,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D106" s="2">
         <v>0</v>
@@ -3073,13 +3075,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -3087,13 +3089,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D108" s="2">
         <v>0</v>
@@ -3102,13 +3104,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
@@ -3116,13 +3118,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D110" s="2">
         <v>0</v>
@@ -3131,13 +3133,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
@@ -3145,13 +3147,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
@@ -3160,13 +3162,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -3174,13 +3176,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D114" s="2">
         <v>0</v>
@@ -3189,13 +3191,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
@@ -3203,13 +3205,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D116" s="2">
         <v>0</v>
@@ -3218,13 +3220,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
@@ -3232,13 +3234,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D118" s="2">
         <v>0</v>
@@ -3247,13 +3249,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -3261,13 +3263,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D120" s="2">
         <v>0</v>
@@ -3276,13 +3278,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -3290,13 +3292,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D122" s="2">
         <v>0</v>
@@ -3305,13 +3307,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -3319,7 +3321,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>5</v>
@@ -3334,7 +3336,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>5</v>
@@ -3348,10 +3350,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>6</v>
@@ -3363,7 +3365,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>5</v>
@@ -3377,7 +3379,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>5</v>
@@ -3392,7 +3394,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>5</v>
@@ -3406,13 +3408,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2">
         <v>0</v>
@@ -3421,13 +3423,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
@@ -3435,13 +3437,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2">
         <v>0</v>
@@ -3450,13 +3452,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
@@ -3464,13 +3466,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2">
         <v>0</v>
@@ -3479,13 +3481,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D135" s="1">
         <v>0</v>
@@ -3493,13 +3495,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2">
         <v>0</v>
@@ -3508,13 +3510,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D137" s="1">
         <v>0</v>
@@ -3522,13 +3524,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2">
         <v>0</v>
@@ -3537,13 +3539,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D139" s="1">
         <v>0</v>
@@ -3551,13 +3553,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2">
         <v>0</v>
@@ -3566,13 +3568,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D141" s="1">
         <v>0</v>
@@ -3580,13 +3582,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2">
         <v>0</v>
@@ -3595,10 +3597,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>6</v>
@@ -3609,10 +3611,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>6</v>
@@ -3624,13 +3626,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D145" s="1">
         <v>0</v>
@@ -3638,13 +3640,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2">
         <v>0</v>
@@ -3653,13 +3655,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D147" s="1">
         <v>0</v>
@@ -3667,13 +3669,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2">
         <v>0</v>
@@ -3682,13 +3684,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D149" s="1">
         <v>0</v>
@@ -3696,13 +3698,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2">
         <v>0</v>
@@ -3711,13 +3713,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D151" s="1">
         <v>0</v>
@@ -3725,13 +3727,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2">
         <v>0</v>
@@ -3740,13 +3742,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D153" s="1">
         <v>0</v>
@@ -3754,7 +3756,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>5</v>
@@ -3769,13 +3771,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -3783,13 +3785,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2">
         <v>0</v>
@@ -3798,7 +3800,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>5</v>
@@ -3812,10 +3814,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>6</v>
@@ -3827,7 +3829,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>5</v>
@@ -3841,13 +3843,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2">
         <v>0</v>
@@ -3856,13 +3858,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -3870,13 +3872,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2">
         <v>0</v>
@@ -3885,13 +3887,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D163" s="1">
         <v>0</v>
@@ -3899,13 +3901,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2">
         <v>0</v>
@@ -3914,13 +3916,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D165" s="1">
         <v>0</v>
@@ -3928,13 +3930,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2">
         <v>0</v>
@@ -3943,7 +3945,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>5</v>
@@ -3957,13 +3959,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D168" s="2">
         <v>0</v>
@@ -3972,13 +3974,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>

--- a/packages/app/public/techradar/data.xlsx
+++ b/packages/app/public/techradar/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinnapat.c/github/tinnapat/devx-backstage/packages/app/public/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{82491651-4B7A-E942-84C9-034239E1AEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EA66B0FF-58EA-E649-BE35-22934E841993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43440" yWindow="2000" windowWidth="40960" windowHeight="16940"/>
+    <workbookView xWindow="-26920" yWindow="2000" windowWidth="24440" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="KBTG" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="191">
   <si>
     <t>name</t>
   </si>
@@ -85,15 +85,9 @@
     <t>Open API</t>
   </si>
   <si>
-    <t>Blue-green deployment</t>
-  </si>
-  <si>
     <t>AB/testing</t>
   </si>
   <si>
-    <t>Security exception</t>
-  </si>
-  <si>
     <t>SoAC</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>Code review</t>
   </si>
   <si>
-    <t>Trunk-based development</t>
-  </si>
-  <si>
     <t>TDD</t>
   </si>
   <si>
@@ -136,12 +127,6 @@
     <t>DBOps</t>
   </si>
   <si>
-    <t>Architecture-as-a-code</t>
-  </si>
-  <si>
-    <t>Canary deployment</t>
-  </si>
-  <si>
     <t>MongoDB</t>
   </si>
   <si>
@@ -157,9 +142,6 @@
     <t>Google Big Query</t>
   </si>
   <si>
-    <t>Openshift</t>
-  </si>
-  <si>
     <t>Docker</t>
   </si>
   <si>
@@ -175,72 +157,33 @@
     <t>Huawei Cloud</t>
   </si>
   <si>
-    <t>MS SQL</t>
-  </si>
-  <si>
     <t>MySql</t>
   </si>
   <si>
-    <t>Oracle</t>
-  </si>
-  <si>
     <t>Backstage.io</t>
   </si>
   <si>
-    <t>Main frame</t>
-  </si>
-  <si>
     <t>Hadoop</t>
   </si>
   <si>
     <t>IBM Cloud</t>
   </si>
   <si>
-    <t>Palo Alto FW</t>
-  </si>
-  <si>
-    <t>ELK</t>
-  </si>
-  <si>
     <t>Grafana</t>
   </si>
   <si>
-    <t>HPQC</t>
-  </si>
-  <si>
-    <t>UFT</t>
-  </si>
-  <si>
-    <t>Tufin (FW)</t>
-  </si>
-  <si>
     <t>Forcepoint DLP</t>
   </si>
   <si>
-    <t>One Drive</t>
-  </si>
-  <si>
-    <t>Prometheus Dynatrace</t>
-  </si>
-  <si>
     <t>Jenkins</t>
   </si>
   <si>
     <t>Azure AD</t>
   </si>
   <si>
-    <t>Load test performance center</t>
-  </si>
-  <si>
     <t>Robot Framework</t>
   </si>
   <si>
-    <t>Microsoft Outlook</t>
-  </si>
-  <si>
-    <t>Microsoft Office</t>
-  </si>
-  <si>
     <t>Libre Office</t>
   </si>
   <si>
@@ -307,9 +250,6 @@
     <t>EDR</t>
   </si>
   <si>
-    <t>C4 Diagram</t>
-  </si>
-  <si>
     <t>Slack</t>
   </si>
   <si>
@@ -415,21 +355,12 @@
     <t>AWS</t>
   </si>
   <si>
-    <t>Office 365</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
     <t>Microsoft Teams</t>
   </si>
   <si>
     <t>Humatrix</t>
   </si>
   <si>
-    <t>Linux</t>
-  </si>
-  <si>
     <t>Android</t>
   </si>
   <si>
@@ -445,9 +376,6 @@
     <t>XCode</t>
   </si>
   <si>
-    <t>LoadRunner</t>
-  </si>
-  <si>
     <t>Prisma Cloud</t>
   </si>
   <si>
@@ -457,9 +385,6 @@
     <t>Quarterly Business Review</t>
   </si>
   <si>
-    <t>Hashicorp Vault</t>
-  </si>
-  <si>
     <t>JFrog</t>
   </si>
   <si>
@@ -478,30 +403,18 @@
     <t>Ansible</t>
   </si>
   <si>
-    <t>Postgres</t>
-  </si>
-  <si>
     <t>Nginx</t>
   </si>
   <si>
     <t>Security PDPA</t>
   </si>
   <si>
-    <t>VMWare</t>
-  </si>
-  <si>
-    <t>Elasticsearch</t>
-  </si>
-  <si>
     <t>GTM</t>
   </si>
   <si>
     <t>Team Topology</t>
   </si>
   <si>
-    <t>EA Framework</t>
-  </si>
-  <si>
     <t>Kafka</t>
   </si>
   <si>
@@ -517,9 +430,6 @@
     <t>Message Queue</t>
   </si>
   <si>
-    <t>Lucene</t>
-  </si>
-  <si>
     <t>J2EE</t>
   </si>
   <si>
@@ -556,16 +466,10 @@
     <t>WebSphere Application Server</t>
   </si>
   <si>
-    <t>Apigee</t>
-  </si>
-  <si>
     <t>MS Teams</t>
   </si>
   <si>
     <t>BurpSuite</t>
-  </si>
-  <si>
-    <t>Serive Virtualization</t>
   </si>
   <si>
     <t>BMC Control-M</t>
@@ -600,6 +504,96 @@
   </si>
   <si>
     <t>การใช้ LINE for Work แทนที่ LINE ในการคุยงาน จะทำให้ข้อมูลที่คุยกัน ทั้งรูปภาพ และ attachments ไม่หาย และมีความ secure ขึ้น ปัจจุบันยังอยู่ในการศึกษาเพิ่มเติมอยู่ concern ที่มีในขณะนี้มีแค่เรื่องค่าใช้จ่ายที่จะเกิดขึ้น ทีมใดสนใจ ติดต่อคุณกระทิง</t>
+  </si>
+  <si>
+    <t>Service Virtualization</t>
+  </si>
+  <si>
+    <t>OpenShift Container Platform</t>
+  </si>
+  <si>
+    <t>https://www.redhat.com/en/technologies/cloud-computing/openshift/container-platform</t>
+  </si>
+  <si>
+    <t>Dynatrace</t>
+  </si>
+  <si>
+    <t>Prometheus</t>
+  </si>
+  <si>
+    <t>Mainframe</t>
+  </si>
+  <si>
+    <t>Security Review</t>
+  </si>
+  <si>
+    <t>Blue-green Deployment</t>
+  </si>
+  <si>
+    <t>Apache Lucene</t>
+  </si>
+  <si>
+    <t>https://lucene.apache.org/</t>
+  </si>
+  <si>
+    <t>Architecture as Code</t>
+  </si>
+  <si>
+    <t>Trunk-based Development</t>
+  </si>
+  <si>
+    <t>Microsoft SQL Server</t>
+  </si>
+  <si>
+    <t>C4 Diagrams</t>
+  </si>
+  <si>
+    <t>HashiCorp Vault</t>
+  </si>
+  <si>
+    <t>https://www.delphix.com/</t>
+  </si>
+  <si>
+    <t>Micro Focus Quality Center</t>
+  </si>
+  <si>
+    <t>Micro Focus Performance Center</t>
+  </si>
+  <si>
+    <t>Micro Focus Unified Functional Testing</t>
+  </si>
+  <si>
+    <t>Apigee API Management</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/apigee</t>
+  </si>
+  <si>
+    <t>Canary Deployment</t>
+  </si>
+  <si>
+    <t>MS Office 365</t>
+  </si>
+  <si>
+    <t>Micro Focus LoadRunner</t>
+  </si>
+  <si>
+    <t>Elastic Stack</t>
+  </si>
+  <si>
+    <t>Oracle DB</t>
+  </si>
+  <si>
+    <t>Tufin Firewall Management</t>
+  </si>
+  <si>
+    <t>https://www.tufin.com/</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>VMWare ESXi</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1099,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1119,10 +1113,13 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1481,19 +1478,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="91.1640625" style="3" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1509,12 +1506,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1531,9 +1528,9 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="3" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1550,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1566,9 +1563,9 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="3" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1585,12 +1582,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -1601,9 +1598,9 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="3" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="136" x14ac:dyDescent="0.2">
@@ -1620,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="136" x14ac:dyDescent="0.2">
@@ -1636,9 +1633,9 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="3" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1655,12 +1652,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1671,9 +1668,9 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="3" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1690,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1706,7 +1703,7 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1724,7 +1721,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -1735,11 +1732,11 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
@@ -1753,7 +1750,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -1764,11 +1761,11 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -1782,7 +1779,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -1793,11 +1790,11 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -1811,7 +1808,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -1822,11 +1819,11 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -1840,7 +1837,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -1851,11 +1848,11 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -1869,7 +1866,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
@@ -1883,7 +1880,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
@@ -1894,11 +1891,11 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>5</v>
@@ -1912,7 +1909,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
@@ -1923,11 +1920,11 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -1941,7 +1938,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
@@ -1952,11 +1949,11 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
@@ -1970,7 +1967,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
@@ -1981,11 +1978,11 @@
       <c r="D31" s="2">
         <v>0</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
@@ -1999,7 +1996,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
@@ -2010,11 +2007,11 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
@@ -2028,7 +2025,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>14</v>
@@ -2039,11 +2036,11 @@
       <c r="D35" s="2">
         <v>0</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>5</v>
@@ -2057,7 +2054,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>5</v>
@@ -2068,11 +2065,11 @@
       <c r="D37" s="2">
         <v>0</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>5</v>
@@ -2086,7 +2083,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
@@ -2097,11 +2094,11 @@
       <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>5</v>
@@ -2113,9 +2110,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>5</v>
@@ -2126,11 +2123,13 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>5</v>
@@ -2144,7 +2143,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>5</v>
@@ -2158,7 +2157,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>5</v>
@@ -2169,11 +2168,11 @@
       <c r="D44" s="2">
         <v>0</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>5</v>
@@ -2187,7 +2186,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>5</v>
@@ -2198,11 +2197,11 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>5</v>
@@ -2216,7 +2215,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>5</v>
@@ -2227,11 +2226,11 @@
       <c r="D48" s="2">
         <v>0</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>5</v>
@@ -2245,7 +2244,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
@@ -2256,11 +2255,11 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>14</v>
@@ -2274,7 +2273,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>14</v>
@@ -2285,11 +2284,11 @@
       <c r="D52" s="2">
         <v>0</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>14</v>
@@ -2303,7 +2302,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>5</v>
@@ -2314,11 +2313,11 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>5</v>
@@ -2332,7 +2331,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>5</v>
@@ -2343,11 +2342,11 @@
       <c r="D56" s="2">
         <v>0</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>5</v>
@@ -2358,10 +2357,13 @@
       <c r="D57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>5</v>
@@ -2372,11 +2374,13 @@
       <c r="D58" s="2">
         <v>0</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>5</v>
@@ -2390,7 +2394,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>5</v>
@@ -2401,11 +2405,11 @@
       <c r="D60" s="2">
         <v>0</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>5</v>
@@ -2413,28 +2417,29 @@
       <c r="C61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2">
         <v>0</v>
       </c>
-      <c r="E62" s="2"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>5</v>
@@ -2448,7 +2453,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>5</v>
@@ -2459,11 +2464,11 @@
       <c r="D64" s="2">
         <v>0</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>5</v>
@@ -2477,7 +2482,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>5</v>
@@ -2488,11 +2493,11 @@
       <c r="D66" s="2">
         <v>0</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>5</v>
@@ -2506,7 +2511,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>5</v>
@@ -2517,11 +2522,11 @@
       <c r="D68" s="2">
         <v>0</v>
       </c>
-      <c r="E68" s="2"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>5</v>
@@ -2535,7 +2540,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>5</v>
@@ -2546,11 +2551,11 @@
       <c r="D70" s="2">
         <v>0</v>
       </c>
-      <c r="E70" s="2"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>5</v>
@@ -2564,7 +2569,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>5</v>
@@ -2575,11 +2580,11 @@
       <c r="D72" s="2">
         <v>0</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>5</v>
@@ -2593,7 +2598,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>5</v>
@@ -2604,11 +2609,11 @@
       <c r="D74" s="2">
         <v>0</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>5</v>
@@ -2622,7 +2627,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>5</v>
@@ -2633,11 +2638,11 @@
       <c r="D76" s="2">
         <v>0</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>5</v>
@@ -2651,7 +2656,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>5</v>
@@ -2662,11 +2667,11 @@
       <c r="D78" s="2">
         <v>0</v>
       </c>
-      <c r="E78" s="2"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>5</v>
@@ -2680,7 +2685,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>5</v>
@@ -2691,11 +2696,11 @@
       <c r="D80" s="2">
         <v>0</v>
       </c>
-      <c r="E80" s="2"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>5</v>
@@ -2709,7 +2714,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>5</v>
@@ -2720,11 +2725,11 @@
       <c r="D82" s="2">
         <v>0</v>
       </c>
-      <c r="E82" s="2"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>5</v>
@@ -2738,7 +2743,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>5</v>
@@ -2749,11 +2754,11 @@
       <c r="D84" s="2">
         <v>0</v>
       </c>
-      <c r="E84" s="2"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>5</v>
@@ -2767,10 +2772,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>9</v>
@@ -2778,14 +2783,14 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="E86" s="2"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>9</v>
@@ -2796,10 +2801,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>9</v>
@@ -2807,14 +2812,14 @@
       <c r="D88" s="2">
         <v>0</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>9</v>
@@ -2823,12 +2828,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>9</v>
@@ -2836,14 +2841,16 @@
       <c r="D90" s="2">
         <v>0</v>
       </c>
-      <c r="E90" s="2"/>
+      <c r="E90" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>9</v>
@@ -2854,22 +2861,22 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>11</v>
@@ -2883,7 +2890,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>11</v>
@@ -2894,11 +2901,11 @@
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>11</v>
@@ -2912,10 +2919,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>9</v>
@@ -2923,17 +2930,17 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="2"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -2941,57 +2948,60 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D98" s="2">
         <v>0</v>
       </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="D100" s="2">
         <v>0</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
@@ -2999,60 +3009,57 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D102" s="2">
         <v>0</v>
       </c>
-      <c r="E102" s="2"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D104" s="2">
         <v>0</v>
       </c>
-      <c r="E104" s="2"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -3060,28 +3067,28 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D106" s="2">
         <v>0</v>
       </c>
-      <c r="E106" s="2"/>
+      <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -3089,28 +3096,28 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="E108" s="2"/>
+      <c r="E108" s="6"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
@@ -3118,28 +3125,28 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D110" s="2">
         <v>0</v>
       </c>
-      <c r="E110" s="2"/>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D111" s="1">
         <v>0</v>
@@ -3147,28 +3154,28 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D112" s="2">
         <v>0</v>
       </c>
-      <c r="E112" s="2"/>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D113" s="1">
         <v>0</v>
@@ -3176,28 +3183,28 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D114" s="2">
         <v>0</v>
       </c>
-      <c r="E114" s="2"/>
+      <c r="E114" s="6"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D115" s="1">
         <v>0</v>
@@ -3205,28 +3212,28 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D116" s="2">
         <v>0</v>
       </c>
-      <c r="E116" s="2"/>
+      <c r="E116" s="6"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
@@ -3234,28 +3241,28 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D118" s="2">
         <v>0</v>
       </c>
-      <c r="E118" s="2"/>
+      <c r="E118" s="6"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -3263,28 +3270,28 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D120" s="2">
         <v>0</v>
       </c>
-      <c r="E120" s="2"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -3292,28 +3299,28 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2">
         <v>0</v>
       </c>
-      <c r="E122" s="2"/>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -3321,7 +3328,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>5</v>
@@ -3332,11 +3339,11 @@
       <c r="D124" s="2">
         <v>0</v>
       </c>
-      <c r="E124" s="2"/>
+      <c r="E124" s="6"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>5</v>
@@ -3350,28 +3357,28 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2">
         <v>0</v>
       </c>
-      <c r="E126" s="2"/>
+      <c r="E126" s="6"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
@@ -3379,36 +3386,36 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="2">
-        <v>0</v>
-      </c>
-      <c r="E128" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D129" s="1">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0</v>
+      </c>
+      <c r="E129" s="6"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>5</v>
@@ -3419,11 +3426,11 @@
       <c r="D130" s="2">
         <v>0</v>
       </c>
-      <c r="E130" s="2"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>5</v>
@@ -3437,28 +3444,28 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2">
         <v>0</v>
       </c>
-      <c r="E132" s="2"/>
+      <c r="E132" s="6"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
@@ -3466,7 +3473,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>5</v>
@@ -3477,17 +3484,17 @@
       <c r="D134" s="2">
         <v>0</v>
       </c>
-      <c r="E134" s="2"/>
+      <c r="E134" s="6"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="1">
         <v>0</v>
@@ -3495,7 +3502,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>5</v>
@@ -3506,17 +3513,17 @@
       <c r="D136" s="2">
         <v>0</v>
       </c>
-      <c r="E136" s="2"/>
+      <c r="E136" s="6"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D137" s="1">
         <v>0</v>
@@ -3524,28 +3531,28 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D138" s="2">
         <v>0</v>
       </c>
-      <c r="E138" s="2"/>
+      <c r="E138" s="6"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="1">
         <v>0</v>
@@ -3553,10 +3560,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>9</v>
@@ -3564,14 +3571,14 @@
       <c r="D140" s="2">
         <v>0</v>
       </c>
-      <c r="E140" s="2"/>
+      <c r="E140" s="6"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>9</v>
@@ -3582,28 +3589,28 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2">
         <v>0</v>
       </c>
-      <c r="E142" s="2"/>
+      <c r="E142" s="6"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D143" s="1">
         <v>0</v>
@@ -3611,28 +3618,28 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2">
         <v>0</v>
       </c>
-      <c r="E144" s="2"/>
+      <c r="E144" s="6"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="1">
         <v>0</v>
@@ -3640,10 +3647,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>12</v>
@@ -3651,17 +3658,17 @@
       <c r="D146" s="2">
         <v>0</v>
       </c>
-      <c r="E146" s="2"/>
+      <c r="E146" s="6"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="1">
         <v>0</v>
@@ -3669,28 +3676,28 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="2"/>
+      <c r="E148" s="6"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="1">
         <v>0</v>
@@ -3698,10 +3705,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>9</v>
@@ -3709,17 +3716,17 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="2"/>
+      <c r="E150" s="6"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D151" s="1">
         <v>0</v>
@@ -3727,22 +3734,22 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D152" s="2">
         <v>0</v>
       </c>
-      <c r="E152" s="2"/>
+      <c r="E152" s="6"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>5</v>
@@ -3750,245 +3757,151 @@
       <c r="C153" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D153" s="1">
-        <v>0</v>
-      </c>
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+      <c r="E153" s="6"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="2">
-        <v>0</v>
-      </c>
-      <c r="E154" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="1">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+      <c r="E155" s="6"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2">
-        <v>0</v>
-      </c>
-      <c r="E156" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" s="1">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0</v>
+      </c>
+      <c r="E157" s="6"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="2">
-        <v>0</v>
-      </c>
-      <c r="E158" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" s="1">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+      <c r="E159" s="6"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2">
-        <v>0</v>
-      </c>
-      <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="1">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2">
-        <v>0</v>
-      </c>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0</v>
-      </c>
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2">
-        <v>0</v>
-      </c>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D167" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D169" s="1">
+        <v>81</v>
+      </c>
+      <c r="D162" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E103" r:id="rId1"/>
+    <hyperlink ref="E99" r:id="rId1"/>
+    <hyperlink ref="E41" r:id="rId2"/>
+    <hyperlink ref="E161" r:id="rId3"/>
+    <hyperlink ref="E90" r:id="rId4"/>
+    <hyperlink ref="E58" r:id="rId5"/>
+    <hyperlink ref="E57" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/packages/app/public/techradar/data.xlsx
+++ b/packages/app/public/techradar/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinnapat.c/github/tinnapat/devx-backstage/packages/app/public/techradar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EA66B0FF-58EA-E649-BE35-22934E841993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3851F30-CEAB-C14D-AE06-78BC6A19F492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26920" yWindow="2000" windowWidth="24440" windowHeight="16940"/>
+    <workbookView xWindow="-25600" yWindow="2000" windowWidth="24440" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KBTG" sheetId="1" r:id="rId1"/>
@@ -490,9 +490,6 @@
     <t>เป็นเทคนิคในการสร้าง API Specification ด้วยโค้ด จากกระบวนการปัจจุบันที่ใช้ Excel ในการทำ API Spec เราพบปัญหาว่ามีโอกาสที่ตัว API จริงและ API Spec นั้นไม่ตรงกัน อาจเกิดจากการสื่อสารผิดพลาด หรือไม่ได้อัพเดทอย่างสอดคล้องกัน เมื่อเราได้ทดลองสร้าง API Spec ด้วยการเขียนโค้ดแล้ว เราพบว่า Code กับ API Spec นั้นมีความ Consistency กันมากขึ้น และยังสามารถทดสอบการเรียก API ได้ง่าย เมื่อใช้เครื่องมืออย่าง Swagger การจะเปลี่ยนมาใช้เทคนิคนี้ได้นั้น จะต้องมีการตกลงกันในทีมก่อนว่าใครจะเป็นผู้เขียน API Spec นี้ เนื่องจากตอนที่ใช้ Excel จะให้ BA เป็นคนเขียน แต่พอเป็นการสร้างด้วยโค้ดแล้ว ดูเหมือนกับว่าจะต้องเป็นทาง Developer เป็นผู้เขียนเอง หากทีมใดต้องการใช้เทคนิคนี้ สามารถขอรายละเอียดได้ที่ทีม SDX</t>
   </si>
   <si>
-    <t>เป็นแนวทางชี้วัดประสิทธิภาพของทีมพัฒนาซอฟต์แวร์ที่ใช้กันในระดับสากล โดยผ่านงานวิจัย DORA (DevOps Research and Assessment) ซึ่งมีใจความสำคัญ คือปัจจัยที่ส่งผลต่อประสิทธิภาพของทีมพัฒนาซอฟต์แวร์ มี 4 ปัจจัยด้วยกัน เรียกว่า Four Key Metrics โดยเรามีความคิดเห็นว่า Four Key Metrics นี้เหมาะที่จะนำมาใช้ในชาว KBTG ที่มีส่วนร่วมตลอดกระบวนการการพัฒนาซอฟต์แวร์ตั้งแต่ต้นจนจบ เป็นตัวเลือกที่สามารถนำมาประยุกต์ใช้กับ OKRs ขององค์กรได้ ตัวอย่างเช่นการตั้งเป้าหมายอยู่ที่ตั้งแต่การตั้งเป้าหมายระยะเวลาตั้งแต่มีการทำ code commit จนถึงการติดตั้งขึ้น production ให้ไม่เกิน 1 ชั่วโมง สำหรับข้อมูลเพิ่มเติมสามารถสอบถามเพิ่มเติมได้ที่ Thoughtworks หรือไม่ก็ Google เพราะเป็นผู้มีส่วนร่วมในการพัฒนาตัวชี้วัด Four Key Metrics นี้</t>
-  </si>
-  <si>
     <t>เป็นเครื่องมือที่ใช้เพื่อการทำเขียนและเก็บเอกสารต่างๆ ก่อนที่เราจะมาใช้ Confluence นั้น เราพบปัญหาในการเก็บเอกสาร เนื่องจากเราไม่มี Single source of truth ดังนั้นวิธีเก็บเอกสารถึงแตกต่างกันไปในแต่ละทีม ทำให้ไม่สามารถค้นหาเอกสารได้อย่างมีประสิทธิภาพ เมื่อเรานำ Confluence มาใช้แล้ว เราพบว่าสามารถใช้เครื่องมือนี้เป็น Knowledge base ขององค์กรได้ โดยสามารถจัดเก็บและค้นหาเอกสารได้อย่างมีประสิทธิภาพ แต่ข้อสังเกตคือเมื่อค้นหาด้วย keyword ภาษาไทย ต้องเป็นแบบ exact match เท่านั้น จึงจะเจอสิ่งที่ต้องการ นอกจากนี้ เมื่อ Integrate กับ MSOffice ยังไม่สามารถรองรับการทำ Online collaboration หากต้องการฟีเจอร์นี้ ให้ไปใช้ Office 365 แทน หากทีมใดสนใจใช้ Confluence หรือติดปัญหาการใช้งาน ให้ติดต่อที่ทีม KBTG Academy</t>
   </si>
   <si>
@@ -594,12 +591,15 @@
   </si>
   <si>
     <t>VMWare ESXi</t>
+  </si>
+  <si>
+    <t>เป็นแนวทางชี้วัดประสิทธิภาพของทีมพัฒนาซอฟต์แวร์ที่ใช้กันในระดับสากล โดยผ่านงานวิจัย DORA (DevOps Research and Assessment) ซึ่งมีใจความสำคัญ คือปัจจัยที่ส่งผลต่อประสิทธิภาพของทีมพัฒนาซอฟต์แวร์ มี 4 ปัจจัยด้วยกัน เรียกว่า Four Key Metrics โดยเรามีความคิดเห็นว่า Four Key Metrics นี้เหมาะที่จะนำมาใช้ เนื่องจากมีส่วนร่วมตลอดกระบวนการการพัฒนาซอฟต์แวร์ตั้งแต่ต้นจนจบ เป็นตัวเลือกที่สามารถนำมาประยุกต์ใช้กับ OKRs ขององค์กรได้ ตัวอย่างเช่นการตั้งเป้าหมายอยู่ที่ตั้งแต่การตั้งเป้าหมายระยะเวลาตั้งแต่มีการทำ code commit จนถึงการติดตั้งขึ้น production ให้ไม่เกิน 1 ชั่วโมง สำหรับข้อมูลเพิ่มเติมสามารถสอบถามเพิ่มเติมได้ที่ Thoughtworks หรือไม่ก็ Google เพราะเป็นผู้มีส่วนร่วมในการพัฒนาตัวชี้วัด Four Key Metrics นี้</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1182,7 +1182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1470,18 +1470,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="136" x14ac:dyDescent="0.2">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="41" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>5</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2201,7 +2201,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>5</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>5</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>14</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>5</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>5</v>
@@ -2346,36 +2346,36 @@
     </row>
     <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2409,7 +2409,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>5</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>5</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>5</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>5</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2861,7 +2861,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>11</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>5</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>5</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>11</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>8</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>5</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>5</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>11</v>
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -3896,12 +3896,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E99" r:id="rId1"/>
-    <hyperlink ref="E41" r:id="rId2"/>
-    <hyperlink ref="E161" r:id="rId3"/>
-    <hyperlink ref="E90" r:id="rId4"/>
-    <hyperlink ref="E58" r:id="rId5"/>
-    <hyperlink ref="E57" r:id="rId6"/>
+    <hyperlink ref="E99" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E41" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E161" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E90" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E58" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E57" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
